--- a/DataAnalysis/FrequencyDrift2021-07-26trial11TOF.xlsx
+++ b/DataAnalysis/FrequencyDrift2021-07-26trial11TOF.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottezehnder/Documents/laserStabilization/DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A828C2-C378-FB4D-9449-C63DC170318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{41D0786C-7DDA-F249-8BC6-9D9A09353394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="FrequencyDrift2021-07-26trial11" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -587,6 +588,2037 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.1999415319585356E-2"/>
+          <c:y val="8.0620188958038116E-2"/>
+          <c:w val="0.95490264112603696"/>
+          <c:h val="0.88285957150458683"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FrequencyDrift2021-07-26trial11'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Active Current (mA) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'FrequencyDrift2021-07-26trial11'!$B$7:$B$186</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="180"/>
+                <c:pt idx="0">
+                  <c:v>-1.40177361404234E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3451574269489595E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.40177361404234E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.40177361404234E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.8778995556015108E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.6725787134744802E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.3451574269489603E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.4106416842540596E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2615962526380999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.54195097544657E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.8124152982964098E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.54195097544657E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.1961119953329999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7288541239855501E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.10266042106351E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.9624830596592799E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.82230569825504E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.3830151438719801E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.5231925052762099E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.0371761637584101E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.8502730152194299E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6633698666804501E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.0371761637584101E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.6446113965100897E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.4577082479711099E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.5044340351058599E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.5044340351058599E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.8782403321838098E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.0651434807227903E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.0651434807227903E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.8782403321838098E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.6725787134744803E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.3454982035312603E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.5791271392049901E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.9529334362829497E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.0463850105524302E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.3734655204956502E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.7005460304388599E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5.1865623719566697E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5.6070944561693703E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.3267397333609003E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.4201913076303898E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.1398365848219198E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-5.8407233918431001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-6.1678039017863097E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.7472718175736098E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-6.4014328374600304E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.7285133474032505E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-6.3547070503252895E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.1957712187507003E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-6.8686907088074803E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.1023196444812101E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.3359485801549301E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-6.9621422830769705E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.1957712187507003E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.7097548772328897E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-7.8966580257718702E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-8.1302869614455903E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-8.2704643228498298E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-8.0835611743108493E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-7.8966580257718702E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-8.2237385357150805E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-7.8966580257718702E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-8.5040932585235499E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-8.36391589711932E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-8.5508190456583005E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.36391589711932E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-8.5040932585235499E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-8.8311737684667602E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-9.2517058526794704E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-9.4853347883531905E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-9.9525926597006403E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.10279673169643801</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.10560027892452301</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.103263989567786</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.103263989567786</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.10793656828126</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.10793656828126</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.10980559976665</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.10840382615260701</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.110272857637997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.10980559976665</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.10840382615260701</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.115879952094167</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.118683499322251</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.114945436351472</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.115879952094167</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.117748983579556</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.120552530807641</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.12195430442168299</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.12522510952111601</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.12195430442168299</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.1280286567492</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.12195430442168299</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.12522510952111601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.124290593778421</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.12896317249189501</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.12989768823459</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.129430430363243</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.12709414100650501</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.13410300907671699</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.13410300907671699</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.12709414100650501</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.13363575120537</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.13830832991884401</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.136906556304802</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.14111187714692899</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.13830832991884401</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.148120745217141</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.14531719798905601</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.149522518831183</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.146251713731751</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.14671897160309799</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.14671897160309799</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.155129613287352</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.15466235541600501</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.151391550316573</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.1555968711587</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.15980219200082699</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.15372783967331</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.15933493412947899</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.16167122348621699</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.16026944987217401</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.16494202858564899</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.164474770714301</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.166343802199691</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.14531719798905601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.16587654432834401</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.164474770714301</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.162605739228911</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.16727831794238601</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.16868009155642799</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.156998644772742</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.16868009155642799</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.148120745217141</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.173352670269903</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.17101638091316601</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.164474770714301</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.15232606605926799</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.17475444388394501</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.17568895962664</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.17381992814125</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.17381992814125</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.175221701755293</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.17755799111202999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.173352670269903</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.17615621749798699</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.17568895962664</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.18036153834011401</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.16167122348621699</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.17989428046876699</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.177090733240682</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.18129605408280899</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.18129605408280899</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.15840041838678401</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.15840041838678401</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.17989428046876699</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.178959764726072</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.18409960131089401</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.160736707743522</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.164474770714301</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.18316508556819899</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.17989428046876699</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.17989428046876699</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.180828796211462</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.177090733240682</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.17662347536933501</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.17615621749798699</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.175221701755293</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.17755799111202999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.17241815452720799</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.17802524898337699</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.17381992814125</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.17802524898337699</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.17802524898337699</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.17942702259741999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.18036153834011401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'FrequencyDrift2021-07-26trial11'!$C$7:$C$186</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="180"/>
+                <c:pt idx="0">
+                  <c:v>165.771598023064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.771598023064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.75472817133399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165.771598023064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165.74629324546899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165.75472817133399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165.75472817133399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165.75472817133399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165.771598023064</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165.771598023064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>165.763163097199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165.763163097199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>165.771598023064</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165.763163097199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>165.763163097199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>165.780032948929</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>165.85594728171299</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>165.78846787479401</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>165.80533772652299</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>165.86438220757799</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>165.79690280065799</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>165.822207578253</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>165.85594728171299</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>165.85594728171299</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165.87281713344299</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165.813772652388</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>165.830642504118</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>165.86438220757799</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>165.84751235584801</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>165.87281713344299</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>165.83907742998301</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>165.87281713344299</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>165.85594728171299</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>165.85594728171299</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>165.85594728171299</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>165.85594728171299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FC3-7849-95E6-0428E7F1F3CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1721362560"/>
+        <c:axId val="1721364208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1721362560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721364208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1721364208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721362560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>823384</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>207432</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80AC16D3-6988-E241-B583-513B46CCC531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -886,7 +2918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C186"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2923,5 +4957,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>